--- a/Coverage Survey/Senegal/sn_sct_lf_1_village_202112.xlsx
+++ b/Coverage Survey/Senegal/sn_sct_lf_1_village_202112.xlsx
@@ -11,12 +11,12 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="1000" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -126,15 +126,15 @@
     <t>Population de la Zone de supervision (ZS)</t>
   </si>
   <si>
+    <t>select_multiple maladies</t>
+  </si>
+  <si>
     <t>v_maladie</t>
   </si>
   <si>
     <t>Maladie en cours d'évaluation</t>
   </si>
   <si>
-    <t>concat('Filariose Lymphatique')</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -183,6 +183,21 @@
     <t>region</t>
   </si>
   <si>
+    <t>maladies</t>
+  </si>
+  <si>
+    <t>Filariose.lymphatique</t>
+  </si>
+  <si>
+    <t>Filariose lymphatique</t>
+  </si>
+  <si>
+    <t>Onchocercose</t>
+  </si>
+  <si>
+    <t>Schistosomiase</t>
+  </si>
+  <si>
     <t>DAKAR</t>
   </si>
   <si>
@@ -468,10 +483,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) - 1. SCT Formulaire Village</t>
-  </si>
-  <si>
-    <t>sn_sct_lf_couverture_202112</t>
+    <t>(Dec 2021) - 1. SCT Formulaire Village V1</t>
+  </si>
+  <si>
+    <t>sn_sct_lf_couverture_202112_v1</t>
   </si>
   <si>
     <t>Français</t>
@@ -482,10 +497,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -534,9 +549,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +575,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,9 +586,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,8 +601,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,72 +677,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,14 +694,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +745,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,13 +835,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,67 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,61 +889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,10 +920,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -919,6 +932,47 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,23 +995,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,194 +1015,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1502,8 +1521,8 @@
   <sheetPr/>
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6222222222222" defaultRowHeight="14.25"/>
@@ -1520,575 +1539,571 @@
     <col min="10" max="10" width="12.6222222222222" customWidth="1"/>
     <col min="11" max="11" width="12.1259259259259" customWidth="1"/>
     <col min="12" max="12" width="9.87407407407407" customWidth="1"/>
-    <col min="13" max="31" width="10.6222222222222" style="11"/>
+    <col min="13" max="31" width="10.6222222222222" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="28.5" spans="1:31">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="11" customFormat="1" ht="28.5" spans="1:31">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="25.5" spans="1:31">
-      <c r="A2" s="13" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+    </row>
+    <row r="2" s="12" customFormat="1" ht="25.5" spans="1:31">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="25.5" spans="1:31">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="25.5" spans="1:31">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-    </row>
-    <row r="5" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A5" s="13" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-    </row>
-    <row r="6" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-    </row>
-    <row r="7" s="10" customFormat="1" ht="25.5" spans="1:31">
-      <c r="A7" s="13" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="25.5" spans="1:31">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-    </row>
-    <row r="8" s="10" customFormat="1" ht="25.5" spans="1:31">
-      <c r="A8" s="13" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="25.5" spans="1:31">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-    </row>
-    <row r="9" s="10" customFormat="1" ht="25.5" spans="1:31">
-      <c r="A9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="10" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-    </row>
-    <row r="10" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-    </row>
-    <row r="11" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A11" s="13" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-    </row>
-    <row r="12" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A12" s="13" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="17"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="15"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-    </row>
-    <row r="13" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A13" s="13" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-    </row>
-    <row r="14" s="10" customFormat="1" ht="12.75" spans="1:31">
-      <c r="A14" s="10" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="12.75" spans="1:31">
+      <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2100,12 +2115,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6222222222222" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2130,63 +2145,73 @@
       <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C3" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2194,10 +2219,10 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2205,10 +2230,10 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2216,10 +2241,10 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2227,10 +2252,10 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2238,10 +2263,10 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2249,10 +2274,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2260,10 +2285,10 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2271,10 +2296,10 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2282,1102 +2307,1146 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" t="s">
         <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" t="s">
         <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" t="s">
         <v>69</v>
-      </c>
-      <c r="B72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" t="s">
         <v>69</v>
-      </c>
-      <c r="B73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" t="s">
         <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>74</v>
+      </c>
+      <c r="B97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3462,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6222222222222" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3404,24 +3473,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>150</v>
+      <c r="A2" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
